--- a/Billion.xlsx
+++ b/Billion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\99.work\自宅学習\python\python_billion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE6070AB-3EED-43E1-AA1D-FB92CED7404F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FCD7A12-6811-4C74-839D-5A0D39D64813}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{E7671F3F-BD70-4F4D-B394-654FAC88283A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="503">
   <si>
     <r>
       <rPr>
@@ -15463,6 +15463,161 @@
         <family val="2"/>
       </rPr>
       <t>498</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>回</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Cosolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>499</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>回</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Cosolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>500</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>回</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Cosolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>501</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>回</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Cosolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>502</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>回</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Cosolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>503</t>
     </r>
     <r>
       <rPr>
@@ -15950,10 +16105,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC8EEAAB-C85E-45C7-87D4-A75CC6FC8D6E}">
-  <dimension ref="A1:H498"/>
+  <dimension ref="A1:H503"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A497" workbookViewId="0">
+      <selection activeCell="F499" sqref="F499"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -28911,6 +29066,136 @@
         <v>29</v>
       </c>
     </row>
+    <row r="499" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A499" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="B499" s="2">
+        <v>5</v>
+      </c>
+      <c r="C499" s="2">
+        <v>9</v>
+      </c>
+      <c r="D499" s="2">
+        <v>14</v>
+      </c>
+      <c r="E499" s="2">
+        <v>18</v>
+      </c>
+      <c r="F499" s="2">
+        <v>27</v>
+      </c>
+      <c r="G499" s="2">
+        <v>32</v>
+      </c>
+      <c r="H499" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="500" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A500" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="B500" s="5">
+        <v>17</v>
+      </c>
+      <c r="C500" s="5">
+        <v>18</v>
+      </c>
+      <c r="D500" s="5">
+        <v>24</v>
+      </c>
+      <c r="E500" s="5">
+        <v>30</v>
+      </c>
+      <c r="F500" s="5">
+        <v>31</v>
+      </c>
+      <c r="G500" s="5">
+        <v>32</v>
+      </c>
+      <c r="H500" s="5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="501" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A501" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="B501" s="2">
+        <v>1</v>
+      </c>
+      <c r="C501" s="2">
+        <v>2</v>
+      </c>
+      <c r="D501" s="2">
+        <v>4</v>
+      </c>
+      <c r="E501" s="2">
+        <v>7</v>
+      </c>
+      <c r="F501" s="2">
+        <v>12</v>
+      </c>
+      <c r="G501" s="2">
+        <v>14</v>
+      </c>
+      <c r="H501" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="502" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A502" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="B502" s="5">
+        <v>1</v>
+      </c>
+      <c r="C502" s="5">
+        <v>2</v>
+      </c>
+      <c r="D502" s="5">
+        <v>12</v>
+      </c>
+      <c r="E502" s="5">
+        <v>17</v>
+      </c>
+      <c r="F502" s="5">
+        <v>21</v>
+      </c>
+      <c r="G502" s="5">
+        <v>22</v>
+      </c>
+      <c r="H502" s="5">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="503" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A503" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="B503" s="5">
+        <v>5</v>
+      </c>
+      <c r="C503" s="5">
+        <v>7</v>
+      </c>
+      <c r="D503" s="5">
+        <v>8</v>
+      </c>
+      <c r="E503" s="5">
+        <v>13</v>
+      </c>
+      <c r="F503" s="5">
+        <v>23</v>
+      </c>
+      <c r="G503" s="5">
+        <v>26</v>
+      </c>
+      <c r="H503" s="5">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Billion.xlsx
+++ b/Billion.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\99.work\自宅学習\python\python_billion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F7664AB-9A57-4A4A-B3D7-CAFBA7A8CF68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A06681E-C007-444C-BB9D-EC1ED9419CFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14505" yWindow="8100" windowWidth="14610" windowHeight="8205" xr2:uid="{E7671F3F-BD70-4F4D-B394-654FAC88283A}"/>
+    <workbookView xWindow="-28065" yWindow="1050" windowWidth="21585" windowHeight="11295" xr2:uid="{E7671F3F-BD70-4F4D-B394-654FAC88283A}"/>
   </bookViews>
   <sheets>
     <sheet name="当選番号" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="574">
   <si>
     <r>
       <rPr>
@@ -17330,6 +17330,503 @@
         <color rgb="FF333333"/>
         <rFont val="メイリオ"/>
         <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Cosolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>559</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>回</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Cosolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>560回</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Cosolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>561回</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Cosolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>562回</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Cosolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>563回</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Cosolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>564回</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Cosolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>565回</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Cosolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>566回</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Cosolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>567回</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Cosolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>568回</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Cosolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>569回</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Cosolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>570回</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Cosolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>571回</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Cosolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>572回</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Cosolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>573回</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Cosolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>574回</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t/>
@@ -17340,7 +17837,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -17384,6 +17881,20 @@
       <sz val="10"/>
       <color rgb="FF333333"/>
       <name val="メイリオ"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Cosolas"/>
       <family val="2"/>
       <charset val="128"/>
     </font>
@@ -17437,7 +17948,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -17455,6 +17966,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -17770,10 +18284,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC8EEAAB-C85E-45C7-87D4-A75CC6FC8D6E}">
-  <dimension ref="A1:H558"/>
+  <dimension ref="A1:H574"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A514" workbookViewId="0">
-      <selection activeCell="F503" sqref="F503"/>
+    <sheetView tabSelected="1" topLeftCell="A554" workbookViewId="0">
+      <selection activeCell="L566" sqref="L566"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -32292,6 +32806,422 @@
         <v>34</v>
       </c>
     </row>
+    <row r="559" spans="1:8" ht="16.5">
+      <c r="A559" s="6" t="s">
+        <v>558</v>
+      </c>
+      <c r="B559" s="5">
+        <v>3</v>
+      </c>
+      <c r="C559" s="5">
+        <v>4</v>
+      </c>
+      <c r="D559" s="5">
+        <v>10</v>
+      </c>
+      <c r="E559" s="5">
+        <v>13</v>
+      </c>
+      <c r="F559" s="5">
+        <v>15</v>
+      </c>
+      <c r="G559" s="5">
+        <v>18</v>
+      </c>
+      <c r="H559" s="5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="560" spans="1:8" ht="16.5">
+      <c r="A560" s="6" t="s">
+        <v>559</v>
+      </c>
+      <c r="B560" s="5">
+        <v>3</v>
+      </c>
+      <c r="C560" s="5">
+        <v>20</v>
+      </c>
+      <c r="D560" s="5">
+        <v>29</v>
+      </c>
+      <c r="E560" s="5">
+        <v>32</v>
+      </c>
+      <c r="F560" s="5">
+        <v>33</v>
+      </c>
+      <c r="G560" s="5">
+        <v>34</v>
+      </c>
+      <c r="H560" s="5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="561" spans="1:8" ht="16.5">
+      <c r="A561" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="B561" s="5">
+        <v>6</v>
+      </c>
+      <c r="C561" s="5">
+        <v>8</v>
+      </c>
+      <c r="D561" s="5">
+        <v>19</v>
+      </c>
+      <c r="E561" s="5">
+        <v>20</v>
+      </c>
+      <c r="F561" s="5">
+        <v>27</v>
+      </c>
+      <c r="G561" s="5">
+        <v>32</v>
+      </c>
+      <c r="H561" s="5">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="562" spans="1:8" ht="16.5">
+      <c r="A562" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="B562" s="5">
+        <v>2</v>
+      </c>
+      <c r="C562" s="5">
+        <v>14</v>
+      </c>
+      <c r="D562" s="5">
+        <v>15</v>
+      </c>
+      <c r="E562" s="5">
+        <v>20</v>
+      </c>
+      <c r="F562" s="5">
+        <v>28</v>
+      </c>
+      <c r="G562" s="5">
+        <v>30</v>
+      </c>
+      <c r="H562" s="5">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="563" spans="1:8" ht="16.5">
+      <c r="A563" s="6" t="s">
+        <v>562</v>
+      </c>
+      <c r="B563" s="5">
+        <v>1</v>
+      </c>
+      <c r="C563" s="5">
+        <v>4</v>
+      </c>
+      <c r="D563" s="5">
+        <v>6</v>
+      </c>
+      <c r="E563" s="5">
+        <v>14</v>
+      </c>
+      <c r="F563" s="5">
+        <v>16</v>
+      </c>
+      <c r="G563" s="5">
+        <v>19</v>
+      </c>
+      <c r="H563" s="5">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="564" spans="1:8" ht="16.5">
+      <c r="A564" s="6" t="s">
+        <v>563</v>
+      </c>
+      <c r="B564" s="5">
+        <v>9</v>
+      </c>
+      <c r="C564" s="5">
+        <v>13</v>
+      </c>
+      <c r="D564" s="5">
+        <v>15</v>
+      </c>
+      <c r="E564" s="5">
+        <v>18</v>
+      </c>
+      <c r="F564" s="5">
+        <v>22</v>
+      </c>
+      <c r="G564" s="5">
+        <v>24</v>
+      </c>
+      <c r="H564" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="565" spans="1:8" ht="16.5">
+      <c r="A565" s="6" t="s">
+        <v>564</v>
+      </c>
+      <c r="B565" s="5">
+        <v>3</v>
+      </c>
+      <c r="C565" s="5">
+        <v>6</v>
+      </c>
+      <c r="D565" s="5">
+        <v>9</v>
+      </c>
+      <c r="E565" s="5">
+        <v>11</v>
+      </c>
+      <c r="F565" s="5">
+        <v>19</v>
+      </c>
+      <c r="G565" s="5">
+        <v>30</v>
+      </c>
+      <c r="H565" s="5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="566" spans="1:8" ht="16.5">
+      <c r="A566" s="6" t="s">
+        <v>565</v>
+      </c>
+      <c r="B566" s="5">
+        <v>3</v>
+      </c>
+      <c r="C566" s="5">
+        <v>5</v>
+      </c>
+      <c r="D566" s="5">
+        <v>18</v>
+      </c>
+      <c r="E566" s="5">
+        <v>25</v>
+      </c>
+      <c r="F566" s="5">
+        <v>28</v>
+      </c>
+      <c r="G566" s="5">
+        <v>35</v>
+      </c>
+      <c r="H566" s="5">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="567" spans="1:8" ht="16.5">
+      <c r="A567" s="6" t="s">
+        <v>566</v>
+      </c>
+      <c r="B567" s="5">
+        <v>6</v>
+      </c>
+      <c r="C567" s="5">
+        <v>8</v>
+      </c>
+      <c r="D567" s="5">
+        <v>16</v>
+      </c>
+      <c r="E567" s="5">
+        <v>18</v>
+      </c>
+      <c r="F567" s="5">
+        <v>19</v>
+      </c>
+      <c r="G567" s="5">
+        <v>34</v>
+      </c>
+      <c r="H567" s="5">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="568" spans="1:8" ht="16.5">
+      <c r="A568" s="6" t="s">
+        <v>567</v>
+      </c>
+      <c r="B568" s="5">
+        <v>8</v>
+      </c>
+      <c r="C568" s="5">
+        <v>18</v>
+      </c>
+      <c r="D568" s="5">
+        <v>20</v>
+      </c>
+      <c r="E568" s="5">
+        <v>29</v>
+      </c>
+      <c r="F568" s="5">
+        <v>30</v>
+      </c>
+      <c r="G568" s="5">
+        <v>33</v>
+      </c>
+      <c r="H568" s="5">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="569" spans="1:8" ht="16.5">
+      <c r="A569" s="6" t="s">
+        <v>568</v>
+      </c>
+      <c r="B569" s="5">
+        <v>12</v>
+      </c>
+      <c r="C569" s="5">
+        <v>15</v>
+      </c>
+      <c r="D569" s="5">
+        <v>17</v>
+      </c>
+      <c r="E569" s="5">
+        <v>22</v>
+      </c>
+      <c r="F569" s="5">
+        <v>30</v>
+      </c>
+      <c r="G569" s="5">
+        <v>34</v>
+      </c>
+      <c r="H569" s="5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="570" spans="1:8" ht="16.5">
+      <c r="A570" s="6" t="s">
+        <v>569</v>
+      </c>
+      <c r="B570" s="5">
+        <v>1</v>
+      </c>
+      <c r="C570" s="5">
+        <v>3</v>
+      </c>
+      <c r="D570" s="5">
+        <v>9</v>
+      </c>
+      <c r="E570" s="5">
+        <v>12</v>
+      </c>
+      <c r="F570" s="5">
+        <v>25</v>
+      </c>
+      <c r="G570" s="5">
+        <v>26</v>
+      </c>
+      <c r="H570" s="5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="571" spans="1:8" ht="16.5">
+      <c r="A571" s="6" t="s">
+        <v>570</v>
+      </c>
+      <c r="B571" s="5">
+        <v>13</v>
+      </c>
+      <c r="C571" s="5">
+        <v>26</v>
+      </c>
+      <c r="D571" s="5">
+        <v>27</v>
+      </c>
+      <c r="E571" s="5">
+        <v>29</v>
+      </c>
+      <c r="F571" s="5">
+        <v>30</v>
+      </c>
+      <c r="G571" s="5">
+        <v>34</v>
+      </c>
+      <c r="H571" s="5">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="572" spans="1:8" ht="16.5">
+      <c r="A572" s="6" t="s">
+        <v>571</v>
+      </c>
+      <c r="B572" s="5">
+        <v>1</v>
+      </c>
+      <c r="C572" s="5">
+        <v>2</v>
+      </c>
+      <c r="D572" s="5">
+        <v>4</v>
+      </c>
+      <c r="E572" s="5">
+        <v>19</v>
+      </c>
+      <c r="F572" s="5">
+        <v>21</v>
+      </c>
+      <c r="G572" s="5">
+        <v>26</v>
+      </c>
+      <c r="H572" s="5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="573" spans="1:8" ht="16.5">
+      <c r="A573" s="6" t="s">
+        <v>572</v>
+      </c>
+      <c r="B573" s="5">
+        <v>11</v>
+      </c>
+      <c r="C573" s="5">
+        <v>12</v>
+      </c>
+      <c r="D573" s="5">
+        <v>18</v>
+      </c>
+      <c r="E573" s="5">
+        <v>19</v>
+      </c>
+      <c r="F573" s="5">
+        <v>23</v>
+      </c>
+      <c r="G573" s="5">
+        <v>26</v>
+      </c>
+      <c r="H573" s="5">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="574" spans="1:8" ht="16.5">
+      <c r="A574" s="6" t="s">
+        <v>573</v>
+      </c>
+      <c r="B574" s="5">
+        <v>4</v>
+      </c>
+      <c r="C574" s="5">
+        <v>5</v>
+      </c>
+      <c r="D574" s="5">
+        <v>13</v>
+      </c>
+      <c r="E574" s="5">
+        <v>16</v>
+      </c>
+      <c r="F574" s="5">
+        <v>22</v>
+      </c>
+      <c r="G574" s="5">
+        <v>23</v>
+      </c>
+      <c r="H574" s="5">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Billion.xlsx
+++ b/Billion.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\99.work\自宅学習\python\python_billion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A06681E-C007-444C-BB9D-EC1ED9419CFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A331008-139D-4FCB-AE67-1067297CA293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28065" yWindow="1050" windowWidth="21585" windowHeight="11295" xr2:uid="{E7671F3F-BD70-4F4D-B394-654FAC88283A}"/>
+    <workbookView xWindow="-24645" yWindow="705" windowWidth="9030" windowHeight="14700" xr2:uid="{E7671F3F-BD70-4F4D-B394-654FAC88283A}"/>
   </bookViews>
   <sheets>
     <sheet name="当選番号" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="579">
   <si>
     <r>
       <rPr>
@@ -17831,6 +17831,21 @@
       </rPr>
       <t/>
     </r>
+  </si>
+  <si>
+    <t>第575回</t>
+  </si>
+  <si>
+    <t>第576回</t>
+  </si>
+  <si>
+    <t>第577回</t>
+  </si>
+  <si>
+    <t>第578回</t>
+  </si>
+  <si>
+    <t>第579回</t>
   </si>
 </sst>
 </file>
@@ -17919,7 +17934,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -17942,13 +17957,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFB5B5B5"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFB9B9B9"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFB9B9B9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFB5B5B5"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFB5B5B5"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -17968,6 +18007,12 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -18284,10 +18329,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC8EEAAB-C85E-45C7-87D4-A75CC6FC8D6E}">
-  <dimension ref="A1:H574"/>
+  <dimension ref="A1:H579"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A554" workbookViewId="0">
-      <selection activeCell="L566" sqref="L566"/>
+    <sheetView tabSelected="1" topLeftCell="A565" workbookViewId="0">
+      <selection activeCell="J576" sqref="J576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -33222,6 +33267,136 @@
         <v>35</v>
       </c>
     </row>
+    <row r="575" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A575" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="B575" s="8">
+        <v>2</v>
+      </c>
+      <c r="C575" s="8">
+        <v>12</v>
+      </c>
+      <c r="D575" s="8">
+        <v>18</v>
+      </c>
+      <c r="E575" s="8">
+        <v>20</v>
+      </c>
+      <c r="F575" s="8">
+        <v>25</v>
+      </c>
+      <c r="G575" s="8">
+        <v>28</v>
+      </c>
+      <c r="H575" s="8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="576" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A576" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="B576" s="8">
+        <v>11</v>
+      </c>
+      <c r="C576" s="8">
+        <v>13</v>
+      </c>
+      <c r="D576" s="8">
+        <v>14</v>
+      </c>
+      <c r="E576" s="8">
+        <v>18</v>
+      </c>
+      <c r="F576" s="8">
+        <v>19</v>
+      </c>
+      <c r="G576" s="8">
+        <v>23</v>
+      </c>
+      <c r="H576" s="8">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="577" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A577" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="B577" s="8">
+        <v>11</v>
+      </c>
+      <c r="C577" s="8">
+        <v>13</v>
+      </c>
+      <c r="D577" s="8">
+        <v>19</v>
+      </c>
+      <c r="E577" s="8">
+        <v>25</v>
+      </c>
+      <c r="F577" s="8">
+        <v>29</v>
+      </c>
+      <c r="G577" s="8">
+        <v>36</v>
+      </c>
+      <c r="H577" s="8">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="578" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A578" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="B578" s="8">
+        <v>2</v>
+      </c>
+      <c r="C578" s="8">
+        <v>15</v>
+      </c>
+      <c r="D578" s="8">
+        <v>19</v>
+      </c>
+      <c r="E578" s="8">
+        <v>20</v>
+      </c>
+      <c r="F578" s="8">
+        <v>22</v>
+      </c>
+      <c r="G578" s="8">
+        <v>31</v>
+      </c>
+      <c r="H578" s="8">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="579" spans="1:8" ht="13.5" thickBot="1">
+      <c r="A579" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="B579" s="8">
+        <v>7</v>
+      </c>
+      <c r="C579" s="8">
+        <v>19</v>
+      </c>
+      <c r="D579" s="8">
+        <v>23</v>
+      </c>
+      <c r="E579" s="8">
+        <v>33</v>
+      </c>
+      <c r="F579" s="8">
+        <v>34</v>
+      </c>
+      <c r="G579" s="8">
+        <v>35</v>
+      </c>
+      <c r="H579" s="8">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
